--- a/docs/CareConnect-DocumentReference-1.xlsx
+++ b/docs/CareConnect-DocumentReference-1.xlsx
@@ -219,8 +219,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -457,8 +456,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -549,7 +547,7 @@
     <t>DocumentReference.masterIdentifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -622,8 +620,7 @@
     <t>The status of this document reference.</t>
   </si>
   <si>
-    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
-This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
+    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.  This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
     <t>The status of the document reference.</t>
@@ -686,7 +683,7 @@
     <t>SNOMED CT UK document type</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-DocumentType-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-DocumentType-1</t>
   </si>
   <si>
     <t>./code</t>
@@ -914,7 +911,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Device|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(Group|Device|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -989,7 +986,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(Device|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -1017,7 +1014,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -1126,7 +1123,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-DocumentReference-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-DocumentReference-1)
 </t>
   </si>
   <si>
@@ -1284,7 +1281,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -1378,7 +1375,7 @@
     <t>Care setting type of the document</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-CareSettingType-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-CareSettingType-1</t>
   </si>
   <si>
     <t>DocumentEntry.practiceSettingCode</t>
@@ -1387,7 +1384,7 @@
     <t>DocumentReference.context.sourcePatientInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -1664,7 +1661,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
